--- a/Spreadsheet Applications/Using the Data Analysis, Solver, and Scenario Features, and Building Complex Formulas/Charlotte Sales.xlsx
+++ b/Spreadsheet Applications/Using the Data Analysis, Solver, and Scenario Features, and Building Complex Formulas/Charlotte Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Using the Data Analysis^J Solver^J  and Scenario Features^J and Building Complex Formulas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Using the Data Analysis^J Solver^J and Scenario Features^J and Building Complex Formulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_12128AE7DE162975AC6232A684BF0BFD39475CD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3D6B8A-E09E-4E3E-A53B-5A1AFEF898B0}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_12128AE7DE162975AC6232A684BF0BFD39475CD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A39973B-8D4F-4177-B2E9-6F56C7B8C1BC}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2925" windowWidth="28800" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="ddd\,\ mmm\ dd"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ mmm\ dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -330,22 +330,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="5"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="5"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1598,6 +1598,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1806475855"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -2181,10 +2182,14 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AA1900C0-BF15-49F0-96BE-AFDCEA1CAD4C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2233,7 +2238,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675165" cy="6296766"/>
+    <xdr:ext cx="8669461" cy="6296766"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2554,7 +2559,7 @@
   </sheetPr>
   <dimension ref="A1:AV51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -2570,76 +2575,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
     </row>
     <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>41805</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3414</v>
       </c>
       <c r="C3" t="e">
@@ -2647,10 +2652,10 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>41806</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>2850</v>
       </c>
       <c r="C4" t="e">
@@ -2658,10 +2663,10 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>41807</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>3355</v>
       </c>
       <c r="C5" t="e">
@@ -2669,10 +2674,10 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>41808</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>4647</v>
       </c>
       <c r="C6" t="e">
@@ -2680,10 +2685,10 @@
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>41809</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>3722</v>
       </c>
       <c r="C7" t="e">
@@ -2691,10 +2696,10 @@
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>41810</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>3056</v>
       </c>
       <c r="C8" t="e">
@@ -2702,522 +2707,522 @@
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>41811</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>3226</v>
       </c>
-      <c r="C9" s="22">
-        <f t="shared" ref="C9:C49" si="0">AVERAGE(B3:B9)</f>
+      <c r="C9" s="21">
+        <f t="shared" ref="C9:C48" si="0">AVERAGE(B3:B9)</f>
         <v>3467.1428571428573</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>41812</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>3568</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <f t="shared" si="0"/>
         <v>3489.1428571428573</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>41813</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>3224</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <f t="shared" si="0"/>
         <v>3542.5714285714284</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>41814</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>4424</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <f t="shared" si="0"/>
         <v>3695.2857142857142</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>41815</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>5521</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <f t="shared" si="0"/>
         <v>3820.1428571428573</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>41816</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>5814</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <f t="shared" si="0"/>
         <v>4119</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>41817</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>4354</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <f t="shared" si="0"/>
         <v>4304.4285714285716</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>41818</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>3285</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <f t="shared" si="0"/>
         <v>4312.8571428571431</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>41819</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>3571</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <f t="shared" si="0"/>
         <v>4313.2857142857147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>41820</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>3573</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <f t="shared" si="0"/>
         <v>4363.1428571428569</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>41821</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>4621</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <f t="shared" si="0"/>
         <v>4391.2857142857147</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>41822</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>6027</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <f t="shared" si="0"/>
         <v>4463.5714285714284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>41823</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>8244</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <f t="shared" si="0"/>
         <v>4810.7142857142853</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <f>(C21-C14)/C14</f>
         <v>0.16793257725522828</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>41824</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>4828</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <f t="shared" si="0"/>
         <v>4878.4285714285716</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>41825</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>3391</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <f t="shared" si="0"/>
         <v>4893.5714285714284</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>41826</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>3224</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <f t="shared" si="0"/>
         <v>4844</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>41827</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>4728</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <f t="shared" si="0"/>
         <v>5009</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>41828</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>4947</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <f t="shared" si="0"/>
         <v>5055.5714285714284</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>41829</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>8478</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <f t="shared" si="0"/>
         <v>5405.7142857142853</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>41830</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>8266</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <f t="shared" si="0"/>
         <v>5408.8571428571431</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <f>(C28-C21)/C21</f>
         <v>0.12433556050482568</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>41831</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>5310</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <f t="shared" si="0"/>
         <v>5477.7142857142853</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>41832</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>4616</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <f t="shared" si="0"/>
         <v>5652.7142857142853</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>41833</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>3062</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <f t="shared" si="0"/>
         <v>5629.5714285714284</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>41834</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>3584</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <f t="shared" si="0"/>
         <v>5466.1428571428569</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>41835</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>5144</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <f t="shared" si="0"/>
         <v>5494.2857142857147</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>41836</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>7906</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <f t="shared" si="0"/>
         <v>5412.5714285714284</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>41837</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>9374</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <f t="shared" si="0"/>
         <v>5570.8571428571431</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <f>(C35-C28)/C28</f>
         <v>2.9950874227457607E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>41838</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>5517</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <f t="shared" si="0"/>
         <v>5600.4285714285716</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>41839</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>3348</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <f t="shared" si="0"/>
         <v>5419.2857142857147</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>41840</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>2954</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <f t="shared" si="0"/>
         <v>5403.8571428571431</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <v>41841</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>3018</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="21">
         <f t="shared" si="0"/>
         <v>5323</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>41842</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>3631</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <f t="shared" si="0"/>
         <v>5106.8571428571431</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>41843</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>7896</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <f t="shared" si="0"/>
         <v>5105.4285714285716</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>41844</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>9174</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="21">
         <f t="shared" si="0"/>
         <v>5076.8571428571431</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="22">
         <f>(C42-C35)/C35</f>
         <v>-8.867576161657606E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>41845</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>5266</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="21">
         <f t="shared" si="0"/>
         <v>5041</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>41846</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>3408</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="21">
         <f t="shared" si="0"/>
         <v>5049.5714285714284</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="17">
         <v>41847</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>3555</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="21">
         <f t="shared" si="0"/>
         <v>5135.4285714285716</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="17">
         <v>41848</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>3817</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="21">
         <f t="shared" si="0"/>
         <v>5249.5714285714284</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="17">
         <v>41849</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>5306</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <f t="shared" si="0"/>
         <v>5488.8571428571431</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>41850</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>9534</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <f t="shared" si="0"/>
         <v>5722.8571428571431</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
+      <c r="A49" s="17">
         <v>41851</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>9066</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <f>AVERAGE(B43:B49)</f>
         <v>5707.4285714285716</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <f>(C49-C42)/C42</f>
         <v>0.12420507625640156</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="20">
         <f>SUM(B3:B49)</f>
         <v>232844</v>
       </c>
@@ -3226,7 +3231,7 @@
       <c r="A51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <f>SUM(B19:B49)</f>
         <v>171240</v>
       </c>
@@ -3238,7 +3243,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="36" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3249,7 +3256,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -3261,21 +3268,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
@@ -3319,51 +3326,51 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <f>Sales!B51</f>
         <v>171240</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <f>B3*(1+$B$12)</f>
         <v>188364.00000000003</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <f t="shared" ref="D3:M3" si="0">C3*(1+$B$12)</f>
         <v>207200.40000000005</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <f t="shared" si="0"/>
         <v>227920.44000000009</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <f t="shared" si="0"/>
         <v>250712.48400000011</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f t="shared" si="0"/>
         <v>275783.73240000015</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <f t="shared" si="0"/>
         <v>303362.1056400002</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <f t="shared" si="0"/>
         <v>333698.31620400026</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <f t="shared" si="0"/>
         <v>367068.14782440034</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="23">
         <f t="shared" si="0"/>
         <v>403774.96260684042</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <f t="shared" si="0"/>
         <v>444152.45886752452</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="23">
         <f t="shared" si="0"/>
         <v>488567.70475427702</v>
       </c>
@@ -3381,51 +3388,51 @@
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>B3*$B$13</f>
         <v>148978.79999999999</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <f t="shared" ref="C6:M6" si="1">C3*$B$13</f>
         <v>163876.68000000002</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="1"/>
         <v>180264.34800000006</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f t="shared" si="1"/>
         <v>198290.78280000007</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" si="1"/>
         <v>218119.86108000009</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f t="shared" si="1"/>
         <v>239931.84718800013</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f t="shared" si="1"/>
         <v>263925.03190680017</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f t="shared" si="1"/>
         <v>290317.53509748023</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f t="shared" si="1"/>
         <v>319349.28860722831</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <f t="shared" si="1"/>
         <v>351284.21746795118</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>386412.6392147463</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <f t="shared" si="1"/>
         <v>425053.90313622099</v>
       </c>
@@ -3434,40 +3441,40 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>40000</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>40000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>40000</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>40000</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>40000</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>40000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>40000</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>40000</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>40000</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>40000</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>40000</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <v>40000</v>
       </c>
     </row>
@@ -3475,51 +3482,51 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>SUM(B6:B7)</f>
         <v>188978.8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:M8" si="2">SUM(C6:C7)</f>
         <v>203876.68000000002</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <f t="shared" si="2"/>
         <v>220264.34800000006</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f t="shared" si="2"/>
         <v>238290.78280000007</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <f t="shared" si="2"/>
         <v>258119.86108000009</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <f t="shared" si="2"/>
         <v>279931.8471880001</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <f t="shared" si="2"/>
         <v>303925.03190680017</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <f t="shared" si="2"/>
         <v>330317.53509748023</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>359349.28860722831</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f t="shared" si="2"/>
         <v>391284.21746795118</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <f t="shared" si="2"/>
         <v>426412.6392147463</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <f t="shared" si="2"/>
         <v>465053.90313622099</v>
       </c>
@@ -3528,51 +3535,51 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <f>B3-B8</f>
         <v>-17738.799999999988</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f t="shared" ref="C10:M10" si="3">C3-C8</f>
         <v>-15512.679999999993</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" si="3"/>
         <v>-13063.948000000004</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <f t="shared" si="3"/>
         <v>-10370.342799999984</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f t="shared" si="3"/>
         <v>-7407.3770799999766</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f t="shared" si="3"/>
         <v>-4148.114787999948</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <f t="shared" si="3"/>
         <v>-562.92626679997193</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <f t="shared" si="3"/>
         <v>3380.7811065200367</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <f t="shared" si="3"/>
         <v>7718.8592171720229</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <f t="shared" si="3"/>
         <v>12490.745138889237</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <f t="shared" si="3"/>
         <v>17739.819652778213</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <f t="shared" si="3"/>
         <v>23513.801618056023</v>
       </c>
@@ -3601,7 +3608,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
